--- a/data/data-wrangling-intermediate/03.1b_edited-species-seeded5_conflicting-SpeciesSeeded-fixed.xlsx
+++ b/data/data-wrangling-intermediate/03.1b_edited-species-seeded5_conflicting-SpeciesSeeded-fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5183F30-5639-4DBD-8388-25F9265383A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{A5183F30-5639-4DBD-8388-25F9265383A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A07DD77-663C-4409-A4E8-FB682C040934}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="54">
   <si>
     <t>Site</t>
   </si>
@@ -157,33 +157,6 @@
     <t>Unknown forb 9, BarTBar</t>
   </si>
   <si>
-    <t>UNGR.BarTBar</t>
-  </si>
-  <si>
-    <t>Unknown grass, BarTBar</t>
-  </si>
-  <si>
-    <t>FlyingM</t>
-  </si>
-  <si>
-    <t>UNGR.FlyingM</t>
-  </si>
-  <si>
-    <t>Unknown grass, FlyingM</t>
-  </si>
-  <si>
-    <t>MOWE</t>
-  </si>
-  <si>
-    <t>UNGR2</t>
-  </si>
-  <si>
-    <t>UNGR2.MOWE</t>
-  </si>
-  <si>
-    <t>Unknown grass 2, MOWE</t>
-  </si>
-  <si>
     <t>PEFO</t>
   </si>
   <si>
@@ -199,31 +172,7 @@
     <t>Unknown grass 3, PEFO</t>
   </si>
   <si>
-    <t>UNGR.PEFO</t>
-  </si>
-  <si>
-    <t>Unknown grass, PEFO</t>
-  </si>
-  <si>
-    <t>Spiderweb</t>
-  </si>
-  <si>
-    <t>UNGR.Spiderweb</t>
-  </si>
-  <si>
-    <t>Unknown grass, Spiderweb</t>
-  </si>
-  <si>
-    <t>TLE</t>
-  </si>
-  <si>
     <t>Cool</t>
-  </si>
-  <si>
-    <t>UNGR.TLE</t>
-  </si>
-  <si>
-    <t>Unknown grass, TLE</t>
   </si>
   <si>
     <t>No</t>
@@ -238,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,8 +744,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1177,12 +1126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1295,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1365,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1470,7 +1419,7 @@
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1505,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1519,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -1540,7 +1489,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -1610,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1624,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
@@ -1645,7 +1594,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1">
         <v>1</v>
@@ -1715,7 +1664,7 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1750,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1820,7 +1769,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1834,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>42</v>
@@ -1855,65 +1804,65 @@
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -1922,33 +1871,33 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1957,33 +1906,33 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1995,65 +1944,65 @@
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -2073,22 +2022,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
         <v>6</v>
@@ -2100,7 +2049,7 @@
         <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2108,7 +2057,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -2117,13 +2066,13 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -2143,7 +2092,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -2152,13 +2101,13 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -2170,30 +2119,30 @@
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>6</v>
@@ -2205,7 +2154,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -2213,22 +2162,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2248,22 +2197,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>6</v>
@@ -2275,65 +2224,65 @@
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -2345,15 +2294,15 @@
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2362,13 +2311,13 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
@@ -2380,919 +2329,44 @@
         <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
         <v>12</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
         <v>23</v>
       </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" t="s">
-        <v>68</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" t="s">
-        <v>68</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" t="s">
-        <v>68</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" t="s">
-        <v>68</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" t="s">
-        <v>68</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K60" s="1">
+      <c r="J35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35">
         <v>1</v>
       </c>
     </row>
